--- a/BURSTIME.xlsx
+++ b/BURSTIME.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zulfadli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zulfadli\Documents\GitHub\ICT1007Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A651361B-4464-47E7-8457-FF471E8CFE15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454C0F8D-0E44-466C-BAF4-E29C205C4A10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{786ECE3E-40DC-4AF8-8849-92852D7212CB}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="12528" windowHeight="8508" xr2:uid="{786ECE3E-40DC-4AF8-8849-92852D7212CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>mean Threshold SJF</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>avg turnaround time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new burst time 1 </t>
   </si>
 </sst>
 </file>
@@ -147,15 +150,15 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,646 +475,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A52D3B-69EB-4F0C-936F-759A4BC3CEDC}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="3"/>
-    <col min="5" max="5" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="3"/>
-    <col min="8" max="8" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <f>COUNT(C3:H3)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>20</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>17</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>28</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>24</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>19</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>30</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <f>SUM(C3:H3)</f>
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
-        <f>SUM(C5,-C3)</f>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:H4" si="0">SUM(C5,-C3)</f>
         <v>36</v>
       </c>
-      <c r="D4" s="3">
-        <f>SUM(D5,-D3)</f>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="3">
-        <f>SUM(E5,-E3)</f>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="F4" s="3">
-        <f>SUM(F5,-F3)</f>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="G4" s="3">
-        <f>SUM(G5,-G3)</f>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H4" s="3">
-        <f>SUM(H5,-H3)</f>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>56</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>17</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>124</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>128</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>36</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f>I3/I2</f>
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f>COUNTIF(C3:H3,"&lt;="&amp;C6)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f>SUM(C4:H4)</f>
         <v>361</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f>COUNTIF(C3:H3,"&gt;"&amp;C6)</f>
         <v>3</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <f>C7/I2</f>
         <v>60.166666666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f>SUM(C5:H5)</f>
         <v>499</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <f>C8/I2</f>
         <v>83.166666666666671</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="K10" s="2">
+        <f>SUM(C11-F17,D11-F17,F11-F17,G11-F17,H11-F17)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>17</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>24</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>8</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>13</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>16</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>19</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <f>COUNT(C11:H11)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
+      <c r="K11" s="2">
+        <f>COUNTIF(C11:H11,"&gt;"&amp;F17)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>51</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>73</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>48</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>58</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>68</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>97</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>18</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>61</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>74</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="K14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="2">
+        <f>K10/K11</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f>SUM(C13:H13)</f>
         <v>314</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <f>C16/I11</f>
         <v>52.333333333333336</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f>SUM(C14:H14)</f>
         <v>411</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="F17" s="2">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <f>C17/I11</f>
         <v>68.5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>17</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>28</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>24</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>19</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>30</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <f>COUNT(C21:H21)</f>
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>50</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>60</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>106</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>114</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>87</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>60</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>67</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>114</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>118</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>96</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C22:H22)</f>
         <v>535</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <f>C24/I21</f>
         <v>89.166666666666671</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f>SUM(C23:H23)</f>
         <v>583</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <f>C25/I21</f>
         <v>97.166666666666671</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>17</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>19</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>20</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>28</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>30</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <f>COUNT(C29:H29)</f>
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>0</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>17</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>36</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>102</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>103</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>17</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>36</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>56</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>126</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>131</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <f>SUM(C29:H29)/I29</f>
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <f>SUM(C30:H30)</f>
         <v>366</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <f>C33/I29</f>
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <f>SUM(C31:H31)</f>
         <v>504</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <f>C34/I29</f>
         <v>84</v>
       </c>
